--- a/服务器以及开发部署信息.xlsx
+++ b/服务器以及开发部署信息.xlsx
@@ -663,7 +663,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,37 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,7 +1429,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1477,16 +1453,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1495,13 +1471,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,20 +1552,8 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1629,15 +1605,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,214 +1629,199 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2399,861 +2351,861 @@
   <sheetPr/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="50.375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="20" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="50.375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="17" customWidth="1"/>
     <col min="8" max="8" width="128.25" style="14" customWidth="1"/>
-    <col min="9" max="9" width="74.2333333333333" style="21" customWidth="1"/>
+    <col min="9" max="9" width="74.2333333333333" style="18" customWidth="1"/>
     <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15.75" spans="1:14">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" s="14" customFormat="1" ht="19" customHeight="1" spans="1:14">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" s="15" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>3306</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A4" s="36"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="38"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" s="15" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A5" s="36"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" s="15" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A6" s="36"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <v>1521</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" s="15" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A7" s="36"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <v>6379</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="37" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" s="15" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="36">
         <v>873</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="N8" s="41"/>
+      <c r="I8" s="35"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" s="15" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="36">
         <v>8083</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="N9" s="41"/>
+      <c r="I9" s="35"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" s="15" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A10" s="36"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="39">
+      <c r="A10" s="33"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="36">
         <v>8080</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="N10" s="41"/>
-    </row>
-    <row r="11" s="16" customFormat="1" ht="17.25" spans="1:14">
-      <c r="A11" s="43" t="s">
+      <c r="I10" s="35"/>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" s="15" customFormat="1" ht="17.25" spans="1:14">
+      <c r="A11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="36">
         <v>443</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="N11" s="47"/>
-    </row>
-    <row r="12" s="17" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A12" s="48" t="s">
+      <c r="I11" s="35"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" s="16" customFormat="1" ht="16.5" spans="1:14">
+      <c r="A12" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="42">
         <v>3306</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56" t="s">
+    <row r="13" s="16" customFormat="1" ht="16.5" spans="1:14">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" s="17" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56" t="s">
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" s="16" customFormat="1" ht="16.5" spans="1:14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="15" s="17" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A15" s="54"/>
-      <c r="B15" s="59" t="s">
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" s="16" customFormat="1" ht="16.5" spans="1:14">
+      <c r="A15" s="46"/>
+      <c r="B15" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="48">
         <v>8081</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="60" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="58"/>
-    </row>
-    <row r="16" s="17" customFormat="1" ht="16.5" spans="1:14">
-      <c r="A16" s="54"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="56">
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" s="16" customFormat="1" ht="16.5" spans="1:14">
+      <c r="A16" s="46"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="48">
         <v>8082</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="60" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="58"/>
-    </row>
-    <row r="17" s="17" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A17" s="54"/>
-      <c r="B17" s="59" t="s">
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" s="16" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A17" s="46"/>
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="60" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" s="17" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63">
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" s="16" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55">
         <v>8083</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="65"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" s="15" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="59">
         <v>443</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="69" t="s">
+      <c r="I19" s="61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" s="18" customFormat="1" ht="66" spans="1:9">
-      <c r="A20" s="70" t="s">
+    <row r="20" s="15" customFormat="1" ht="66" spans="1:9">
+      <c r="A20" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="71" t="s">
+      <c r="E20" s="30"/>
+      <c r="F20" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="72" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" s="18" customFormat="1" ht="148.5" spans="1:9">
-      <c r="A21" s="70"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56" t="s">
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" s="15" customFormat="1" ht="148.5" spans="1:9">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="58"/>
-    </row>
-    <row r="22" s="18" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A22" s="70"/>
-      <c r="B22" s="55" t="s">
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" s="15" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A22" s="62"/>
+      <c r="B22" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="30">
         <v>3306</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" s="18" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A23" s="70"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" s="15" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" s="18" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A24" s="74"/>
-      <c r="B24" s="59" t="s">
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" s="15" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A24" s="29"/>
+      <c r="B24" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="36">
         <v>6379</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" s="19" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A25" s="78" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" s="16" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A25" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="42">
         <v>3306</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="19" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A26" s="36"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
+    <row r="26" s="16" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" s="19" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A27" s="36"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" s="16" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="97" t="s">
+      <c r="F27" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" s="19" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A28" s="36"/>
-      <c r="B28" s="33" t="s">
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" s="16" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A28" s="46"/>
+      <c r="B28" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="48">
         <v>6379</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="37" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="82" t="s">
+      <c r="G28" s="48"/>
+      <c r="H28" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" s="19" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39" t="s">
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" s="16" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A29" s="46"/>
+      <c r="B29" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="71">
         <v>8083</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" s="19" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A30" s="36"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="39">
+      <c r="I29" s="50"/>
+    </row>
+    <row r="30" s="16" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A30" s="46"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="71">
         <v>8080</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40" t="s">
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="38"/>
-    </row>
-    <row r="31" s="19" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39" t="s">
+      <c r="I30" s="50"/>
+    </row>
+    <row r="31" s="16" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A31" s="46"/>
+      <c r="B31" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="71">
         <v>9527</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39">
+      <c r="E31" s="71"/>
+      <c r="F31" s="71">
         <v>123456</v>
       </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40" t="s">
+      <c r="G31" s="72"/>
+      <c r="H31" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="38"/>
-    </row>
-    <row r="32" s="19" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A32" s="36"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="39">
+      <c r="I31" s="50"/>
+    </row>
+    <row r="32" s="16" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A32" s="46"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="71">
         <v>9999</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40" t="s">
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" s="17" customFormat="1" ht="17.25" spans="1:9">
+      <c r="I32" s="50"/>
+    </row>
+    <row r="33" s="16" customFormat="1" ht="17.25" spans="1:9">
       <c r="A33" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="75">
+      <c r="C33" s="71">
         <v>443</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="58"/>
+      <c r="I33" s="50"/>
     </row>
     <row r="34" s="15" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C34" s="75">
         <v>3306</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="79" t="s">
+      <c r="E34" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="79" t="s">
+      <c r="G34" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="84"/>
-      <c r="I34" s="69" t="s">
+      <c r="H34" s="77"/>
+      <c r="I34" s="61" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="35" s="15" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A35" s="85"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="33" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="86"/>
-      <c r="H35" s="37" t="s">
+      <c r="G35" s="78"/>
+      <c r="H35" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I35" s="38"/>
+      <c r="I35" s="35"/>
     </row>
     <row r="36" s="15" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A36" s="85"/>
-      <c r="B36" s="33" t="s">
+      <c r="A36" s="62"/>
+      <c r="B36" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="30">
         <v>8080</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="38"/>
+      <c r="I36" s="35"/>
     </row>
     <row r="37" s="15" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A37" s="85"/>
-      <c r="B37" s="33" t="s">
+      <c r="A37" s="62"/>
+      <c r="B37" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="30">
         <v>9527</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33">
+      <c r="E37" s="30"/>
+      <c r="F37" s="30">
         <v>123456</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
+      <c r="G37" s="34"/>
+      <c r="H37" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="38"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" s="15" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A38" s="85"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33">
+      <c r="A38" s="62"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30">
         <v>9999</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37" t="s">
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="38"/>
+      <c r="I38" s="35"/>
     </row>
     <row r="39" s="15" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A39" s="88"/>
-      <c r="B39" s="89" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="89">
+      <c r="C39" s="81">
         <v>8081</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="90" t="s">
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="91"/>
-    </row>
-    <row r="40" s="17" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A40" s="92" t="s">
+      <c r="I39" s="83"/>
+    </row>
+    <row r="40" s="16" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A40" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="93">
+      <c r="C40" s="85">
         <v>8081</v>
       </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="94" t="s">
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="I40" s="95" t="s">
+      <c r="I40" s="87" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:9">
-      <c r="H41" s="21"/>
-      <c r="I41" s="96"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="88"/>
     </row>
     <row r="42" ht="15" spans="1:9">
-      <c r="H42" s="21"/>
-      <c r="I42" s="96"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="88"/>
     </row>
     <row r="43" ht="15" spans="1:9">
-      <c r="H43" s="21"/>
-      <c r="I43" s="96"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="88"/>
     </row>
     <row r="44" ht="15" spans="1:9">
-      <c r="H44" s="21"/>
-      <c r="I44" s="96"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="88"/>
     </row>
     <row r="45" ht="15" spans="1:9">
-      <c r="H45" s="21"/>
-      <c r="I45" s="96"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="88"/>
     </row>
     <row r="46" ht="15" spans="1:9">
-      <c r="H46" s="21"/>
-      <c r="I46" s="96"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="88"/>
     </row>
     <row r="47" ht="15" spans="1:9">
-      <c r="H47" s="21"/>
-      <c r="I47" s="96"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="88"/>
     </row>
     <row r="48" ht="15" spans="1:9">
-      <c r="H48" s="21"/>
-      <c r="I48" s="96"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3300,7 +3252,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3467,9 +3419,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="TH@cxc#68865573*"/>
+    <hyperlink ref="C8" r:id="rId1" display="TH@cxc#68865573*" tooltip="mailto:TH@cxc#68865573*"/>
     <hyperlink ref="C9" r:id="rId1" display="TH@cxc#68865573*" tooltip="mailto:TH@cxc#68865573*"/>
-    <hyperlink ref="C7" r:id="rId2" display="Thqh@68865573"/>
+    <hyperlink ref="C7" r:id="rId2" display="Thqh@68865573" tooltip="mailto:Thqh@68865573"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3481,8 +3433,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A8:D8 A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/服务器以及开发部署信息.xlsx
+++ b/服务器以及开发部署信息.xlsx
@@ -2354,7 +2354,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3162,7 +3162,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="85">
-        <v>8081</v>
+        <v>8080</v>
       </c>
       <c r="D40" s="85"/>
       <c r="E40" s="85"/>
@@ -3252,7 +3252,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3434,7 +3434,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A8:D8 A1:D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -3503,7 +3503,9 @@
       <c r="D4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>8081</v>
+      </c>
     </row>
     <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="2" t="s">

--- a/服务器以及开发部署信息.xlsx
+++ b/服务器以及开发部署信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="服务部署信息" sheetId="1" r:id="rId1"/>
@@ -2351,10 +2351,10 @@
   <sheetPr/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3252,7 +3252,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:D11"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3433,8 +3433,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
